--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>997750.0469341384</v>
+        <v>997750.0469341388</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128495.3735093542</v>
+        <v>131637.7715549444</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9662474.503279343</v>
+        <v>9662474.503279338</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="V2" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="3">
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>99.10224205515568</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>155.5032166200848</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7.203367682519121</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>359.0592087668703</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>89.7846333914846</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>161.2274014392095</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>43.82642114172545</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U9" t="n">
         <v>225.8879277888686</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755638</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,10 +1309,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.69865790865196</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1503,7 +1503,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>41.75100837039689</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1549,7 +1549,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H14" t="n">
-        <v>307.989590223367</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755638</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,10 +1783,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1847,22 +1847,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>217.5699682789832</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>401.3550844723776</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>32.61620300574899</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2208,7 +2208,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9.461970681989216</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,19 +2281,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2318,25 +2318,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>376.1848636439244</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>47.93792996527495</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,7 +2412,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>120.4120358099644</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>87.82198939889074</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>72.49705479598745</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>381.3266455745089</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>94.59270453218384</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>220.7266427284701</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>12.84584032841694</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="32">
@@ -3029,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0.4909289099632224</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>92.22484288883277</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>8.777525990011918</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>393.3927785723437</v>
+        <v>389.0396295043333</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,19 +3433,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>17.76048959327926</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>17.42688879434191</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>192.4820075018952</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>110.2883253154788</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3639,7 +3639,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>41.03250833503009</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>83.82953530753622</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>283.8898270650872</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3822,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>155.886038567534</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>123.1485441819097</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3992,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.449577221038348</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.13027643502281</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4340,10 +4340,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4361,19 +4361,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="V2" t="n">
-        <v>858.9304414063566</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="W2" t="n">
-        <v>579.9844679696339</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="X2" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329111</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C3" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D3" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E3" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676423</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>147.4500811540258</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>147.4500811540258</v>
+        <v>252.0556269645376</v>
       </c>
       <c r="M3" t="n">
-        <v>420.8450297193577</v>
+        <v>525.4505755298694</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>673.2291631121086</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>921.9825771960709</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4440,19 +4440,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>1004.522780006234</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V3" t="n">
-        <v>769.3706717744917</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W3" t="n">
-        <v>515.1333150462901</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X3" t="n">
-        <v>307.2818148407573</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="Y3" t="n">
-        <v>307.2818148407573</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.645519427256</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C5" t="n">
-        <v>1160.683002486844</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D5" t="n">
-        <v>802.4173038800939</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E5" t="n">
-        <v>416.6290512818496</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F5" t="n">
-        <v>416.6290512818496</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y5" t="n">
-        <v>1916.245359491378</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
         <v>505.8730812692495</v>
@@ -4668,19 +4668,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>438.7118141694736</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>438.7118141694736</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>438.7118141694736</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1912.197604328644</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C8" t="n">
-        <v>1912.197604328644</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733124</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2652.879978753853</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2652.879978753853</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2321.817091410283</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.336936304455</v>
+        <v>1969.048436140168</v>
       </c>
       <c r="X8" t="n">
-        <v>2302.336936304455</v>
+        <v>1595.582677879088</v>
       </c>
       <c r="Y8" t="n">
-        <v>1912.197604328644</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4911,13 +4911,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4945,13 +4945,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816298</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837194</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
         <v>235.9284171545819</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>920.3919303875161</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C11" t="n">
-        <v>920.3919303875161</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D11" t="n">
-        <v>920.3919303875161</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E11" t="n">
-        <v>534.603677789272</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F11" t="n">
-        <v>534.603677789272</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5045,7 +5045,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y11" t="n">
-        <v>920.3919303875161</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="12">
@@ -5121,34 +5121,34 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
@@ -5176,25 +5176,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816298</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2307.009759042411</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>1938.047242101999</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.781543495249</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E14" t="n">
-        <v>1193.993290897004</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F14" t="n">
-        <v>783.0073861073968</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G14" t="n">
-        <v>365.0435780055836</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5276,19 +5276,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5318,10 +5318,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5367,7 +5367,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5379,19 +5379,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5419,13 +5419,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816298</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
         <v>235.9284171545819</v>
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2310.5492509541</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1941.586734013689</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>1583.321035406938</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5555,10 +5555,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5595,13 +5595,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5613,22 +5613,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5698,25 +5698,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694738</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7222632714565</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.7222632714565</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>799.8716139843725</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C20" t="n">
-        <v>799.8716139843725</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D20" t="n">
-        <v>799.8716139843725</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E20" t="n">
-        <v>414.0833613861283</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F20" t="n">
-        <v>414.0833613861283</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0833613861283</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>86.88864142213112</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1563.476704221264</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1190.010945960184</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y20" t="n">
-        <v>799.8716139843725</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="21">
@@ -5832,28 +5832,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.5995062532301</v>
+        <v>2032.520634775576</v>
       </c>
       <c r="C22" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>550.5654064942404</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S22" t="n">
-        <v>336.2769833124031</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T22" t="n">
-        <v>108.9687959810048</v>
+        <v>2321.694245121008</v>
       </c>
       <c r="U22" t="n">
-        <v>108.9687959810048</v>
+        <v>2032.520634775576</v>
       </c>
       <c r="V22" t="n">
-        <v>108.9687959810048</v>
+        <v>2032.520634775576</v>
       </c>
       <c r="W22" t="n">
-        <v>108.9687959810048</v>
+        <v>2032.520634775576</v>
       </c>
       <c r="X22" t="n">
-        <v>108.9687959810048</v>
+        <v>2032.520634775576</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.9687959810048</v>
+        <v>2032.520634775576</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1470.569074795015</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>1470.569074795015</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D23" t="n">
-        <v>1470.569074795015</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E23" t="n">
-        <v>1084.780822196771</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F23" t="n">
-        <v>673.7949174071637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
-        <v>255.8311093053505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2247.308246834949</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1857.168914859137</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6048,16 +6048,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6066,25 +6066,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641987</v>
+        <v>368.8844281164661</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598706</v>
+        <v>773.500346212138</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2294.708047044453</v>
+        <v>2259.585262415446</v>
       </c>
       <c r="C25" t="n">
-        <v>2294.708047044453</v>
+        <v>2259.585262415446</v>
       </c>
       <c r="D25" t="n">
-        <v>2144.591407632117</v>
+        <v>2259.585262415446</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>2111.672168833053</v>
       </c>
       <c r="F25" t="n">
         <v>2022.963088632153</v>
@@ -6169,28 +6169,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>2259.585262415446</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018222</v>
+        <v>2259.585262415446</v>
       </c>
       <c r="Y25" t="n">
-        <v>2476.356511874692</v>
+        <v>2259.585262415446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1314.387741597311</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C26" t="n">
-        <v>1241.158393318536</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
         <v>2642.120401548716</v>
@@ -6257,19 +6257,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2057.295728843237</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W26" t="n">
-        <v>1704.527073573123</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X26" t="n">
-        <v>1704.527073573123</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y26" t="n">
-        <v>1314.387741597311</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6279,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6406,28 +6406,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005476</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="W28" t="n">
-        <v>473.4444960005476</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="X28" t="n">
-        <v>245.4549451025302</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1679.795701438247</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C29" t="n">
-        <v>1310.833184497836</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>952.5674858910851</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2289.351746278602</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
-        <v>2066.395541502369</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y29" t="n">
-        <v>2066.395541502369</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2193.687057490954</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>2193.687057490954</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>2193.687057490954</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>2193.687057490954</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>2193.687057490954</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>2193.687057490954</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>2035.938684923484</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
         <v>2022.963088632153</v>
@@ -6646,25 +6646,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>2482.860667836386</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>2482.860667836386</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U31" t="n">
-        <v>2193.687057490954</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V31" t="n">
-        <v>2193.687057490954</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W31" t="n">
-        <v>2193.687057490954</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X31" t="n">
-        <v>2193.687057490954</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y31" t="n">
-        <v>2193.687057490954</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1166.959449965771</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C32" t="n">
-        <v>797.9969330253592</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D32" t="n">
-        <v>439.7312344186087</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2696.653203230381</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.018536202444</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.256750840535</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.193863496965</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.425208226851</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X32" t="n">
-        <v>1166.959449965771</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y32" t="n">
-        <v>1166.959449965771</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>210.7222632714565</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>210.7222632714565</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>210.7222632714565</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>62.80916968906337</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>62.80916968906337</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>62.80916968906337</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694738</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>210.7222632714565</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>210.7222632714565</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1933.544000781331</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C35" t="n">
-        <v>1933.544000781331</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.278302174581</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E35" t="n">
-        <v>1189.490049576337</v>
+        <v>857.8982093416219</v>
       </c>
       <c r="F35" t="n">
-        <v>778.5041447867291</v>
+        <v>446.9123045520143</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
@@ -6971,16 +6971,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2515.500626187983</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C37" t="n">
-        <v>2346.564443260076</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D37" t="n">
-        <v>2346.564443260076</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E37" t="n">
-        <v>2198.651349677683</v>
+        <v>411.2797076961344</v>
       </c>
       <c r="F37" t="n">
-        <v>2180.711461199623</v>
+        <v>411.2797076961344</v>
       </c>
       <c r="G37" t="n">
-        <v>2180.711461199623</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>962.1194880117303</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C38" t="n">
-        <v>962.1194880117303</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D38" t="n">
-        <v>962.1194880117303</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E38" t="n">
-        <v>576.331235413486</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F38" t="n">
-        <v>165.3453306238784</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7190,34 +7190,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V38" t="n">
-        <v>2112.324418312744</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W38" t="n">
-        <v>2112.324418312744</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X38" t="n">
-        <v>1738.858660051664</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y38" t="n">
-        <v>1348.719328075852</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7272,16 +7272,16 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064344</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="C40" t="n">
-        <v>559.1928012785276</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="D40" t="n">
-        <v>559.1928012785276</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E40" t="n">
-        <v>411.2797076961344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>264.3897601982241</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>95.38995993655647</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>2255.552480504987</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064344</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064344</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064344</v>
+        <v>2170.876182214546</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1485.892406545185</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1116.929889604774</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>758.6641909980233</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>1485.892406545185</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1485.892406545185</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
         <v>665.1105362747051</v>
@@ -7485,22 +7485,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7509,22 +7509,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7594,25 +7594,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U43" t="n">
-        <v>343.3601518573251</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V43" t="n">
-        <v>343.3601518573251</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1154.883827626213</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C44" t="n">
-        <v>1154.883827626213</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>796.6181290194625</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E44" t="n">
-        <v>796.6181290194625</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>385.6322242298549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>385.6322242298549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>58.43750426585774</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7679,19 +7679,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2212.181128500978</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V44" t="n">
-        <v>1881.118241157407</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W44" t="n">
-        <v>1528.349585887293</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X44" t="n">
-        <v>1154.883827626213</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y44" t="n">
-        <v>1154.883827626213</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7746,22 +7746,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>268.5356891811371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7834,22 +7834,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>500.8207968750362</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>500.8207968750362</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>450.1841540113768</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>418.2905476243738</v>
+        <v>418.2905476243737</v>
       </c>
       <c r="N3" t="n">
-        <v>274.2569047014342</v>
+        <v>280.6130126714537</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10197,7 +10197,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719081</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22601,19 +22601,19 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>8.095732519776732</v>
       </c>
       <c r="V2" t="n">
-        <v>84.51360120110027</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611355</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="3">
@@ -22635,16 +22635,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22680,7 +22680,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>126.8341841870381</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>50.17947915721956</v>
       </c>
     </row>
     <row r="4">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.700786234059393</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22714,10 +22714,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>138.2176803404121</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -22796,7 +22796,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>54.72496125392468</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22832,25 +22832,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>27.53450764830086</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,22 +22945,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>77.52516886756631</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -23002,7 +23002,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>193.4556401814734</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,13 +23033,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23066,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>172.6218992159323</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890128</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>370.5392807474016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>106.8644646478155</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H14" t="n">
-        <v>15.93318254099017</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890128</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23735,22 +23735,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>12.09831362246982</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23938,7 +23938,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>168.8276855108789</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>12.42908554841739</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>119.3151132391123</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170.5563833514403</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>157.7848504166386</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24169,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24206,25 +24206,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>30.69118209778708</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>275.9848427990822</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>26.02192683660482</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>57.59905862404051</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24409,7 +24409,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>292.7758369750201</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>32.45752444628613</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24497,7 +24497,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24646,7 +24646,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>52.07248744797398</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24658,7 +24658,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>28.98780970275067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24686,19 +24686,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>149.0044579499989</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24853,10 +24853,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>122.1197814639213</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.19995918853699</v>
@@ -24886,25 +24886,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="32">
@@ -24917,19 +24917,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>173.9247838990083</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>158.9993246194565</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>147.3933628517832</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25123,22 +25123,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>56.0183762878722</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,10 +25166,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>20.39139144845126</v>
+        <v>24.74454051646165</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,19 +25321,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>127.660558429652</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>149.882913464709</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>190.2518341615854</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>303.4958447053162</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>115.1383805067651</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25597,16 +25597,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>168.3081080162918</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>98.04054300717456</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25834,22 +25834,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067481</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3958356744438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>259.5852974815709</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>147.4817390238229</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,19 +25919,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26074,22 +26074,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>168.454376917072</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751796.7860409699</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159463.6497950858</v>
+        <v>159463.6497950859</v>
       </c>
       <c r="C2" t="n">
         <v>260237.3490141816</v>
@@ -26329,31 +26329,31 @@
         <v>260237.3490141817</v>
       </c>
       <c r="H2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="I2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="J2" t="n">
         <v>260237.3490141818</v>
       </c>
       <c r="K2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147455</v>
+        <v>440708.0835147456</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113913</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>102466.1171957466</v>
+        <v>102466.1171957467</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26436,19 +26436,19 @@
         <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="J4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26457,7 +26457,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,10 +26519,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18217.60858640849</v>
+        <v>-18217.60858640843</v>
       </c>
       <c r="C6" t="n">
-        <v>-263842.921063033</v>
+        <v>-263842.9210630332</v>
       </c>
       <c r="D6" t="n">
         <v>176865.1624517124</v>
@@ -26537,28 +26537,28 @@
         <v>210492.7624517126</v>
       </c>
       <c r="H6" t="n">
-        <v>210492.7624517124</v>
+        <v>210492.7624517126</v>
       </c>
       <c r="I6" t="n">
-        <v>210492.7624517124</v>
+        <v>210492.7624517126</v>
       </c>
       <c r="J6" t="n">
         <v>138238.0675805735</v>
       </c>
       <c r="K6" t="n">
-        <v>108026.6452559659</v>
+        <v>108026.6452559658</v>
       </c>
       <c r="L6" t="n">
         <v>210492.7624517125</v>
       </c>
       <c r="M6" t="n">
+        <v>210492.7624517127</v>
+      </c>
+      <c r="N6" t="n">
         <v>210492.7624517125</v>
       </c>
-      <c r="N6" t="n">
-        <v>210492.7624517123</v>
-      </c>
       <c r="O6" t="n">
-        <v>210492.7624517125</v>
+        <v>210492.7624517127</v>
       </c>
       <c r="P6" t="n">
         <v>210492.7624517125</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26811,25 +26811,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>342.7224034979612</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,34 +27009,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>276.1565137023554</v>
+      </c>
+      <c r="C4" t="n">
+        <v>398.1307590522002</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="C4" t="n">
-        <v>398.1307590522001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>276.1565137023556</v>
-      </c>
       <c r="K4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -31142,25 +31142,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31841,7 +31841,7 @@
         <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32087,10 +32087,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O15" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32315,7 +32315,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32324,7 +32324,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923047</v>
@@ -32470,7 +32470,7 @@
         <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727431</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081578</v>
@@ -32552,7 +32552,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32786,10 +32786,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304388</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32807,7 +32807,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034983</v>
@@ -33023,7 +33023,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33044,7 +33044,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034983</v>
@@ -33260,10 +33260,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33497,7 +33497,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33734,10 +33734,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33752,7 +33752,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
@@ -34208,10 +34208,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34223,7 +34223,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479578</v>
@@ -34387,7 +34387,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
         <v>95.39071536633799</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>142.9151926181009</v>
+        <v>149.2713005881204</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,10 +35735,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O15" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,7 +35972,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K20" t="n">
         <v>297.223041434342</v>
@@ -36200,7 +36200,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624589</v>
+        <v>242.1053372686584</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338903</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,7 +37157,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37400,7 +37400,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,7 +37871,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735647</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K44" t="n">
         <v>297.223041434342</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624593</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>997750.0469341388</v>
+        <v>1034054.098619896</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131637.7715549444</v>
+        <v>236152.6484828564</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9662474.503279338</v>
+        <v>10850698.87543052</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8401994.634994524</v>
+        <v>7817662.705966741</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>243.2386572690345</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>204.7150910205805</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7.258990150040375</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.5032166200848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.203367682519121</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51.47427571028325</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>231.8635835046281</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="W5" t="n">
-        <v>321.7064610691122</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>263.2420339516669</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>153.2021601354183</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>38.19053515138887</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>43.82642114172545</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984484</v>
+        <v>90.77982285269994</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>200.2365107674141</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1503,7 +1505,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.75100837039689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>134.9198292231118</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>330.1866284966274</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>41.75100837039722</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -1786,7 +1788,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1847,16 +1849,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>81.1220065286378</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.31785343914003</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>127.7140457494443</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>401.3550844723776</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2169,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G21" t="n">
         <v>136.5310119231965</v>
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>9.461970681989216</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>266.6910260201689</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>376.1848636439244</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>87.82198939889074</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>129.7411677825659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>381.3266455745089</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>94.59270453218387</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>94.59270453218384</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>22.82098103446924</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2953,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>81.25819606329431</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3077,13 +3079,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>92.22484288883277</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>325.9224346137729</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.1271626621467</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>389.0396295043333</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>10.28615088124291</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>17.42688879434191</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>192.4820075018952</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,13 +3556,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>103.2376789178153</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3639,7 +3641,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V39" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3670,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>28.4779709503517</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>83.82953530753622</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3822,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123.1485441819097</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>56.88196987815817</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="C2" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="D2" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="E2" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="F2" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U2" t="n">
-        <v>858.9304414063565</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V2" t="n">
-        <v>858.9304414063565</v>
+        <v>771.468009221761</v>
       </c>
       <c r="W2" t="n">
-        <v>858.9304414063565</v>
+        <v>524.4349462307081</v>
       </c>
       <c r="X2" t="n">
-        <v>579.9844679696338</v>
+        <v>277.4018832396551</v>
       </c>
       <c r="Y2" t="n">
-        <v>301.0384945329111</v>
+        <v>30.36882024860222</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.09252109618843</v>
+        <v>26.89733187176046</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09252109618843</v>
+        <v>26.89733187176046</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>22.09252109618843</v>
+        <v>144.9225786467288</v>
       </c>
       <c r="L3" t="n">
-        <v>252.0556269645376</v>
+        <v>374.885684515078</v>
       </c>
       <c r="M3" t="n">
-        <v>525.4505755298694</v>
+        <v>553.4903467936876</v>
       </c>
       <c r="N3" t="n">
-        <v>673.2291631121086</v>
+        <v>553.4903467936876</v>
       </c>
       <c r="O3" t="n">
-        <v>921.9825771960709</v>
+        <v>795.6074518312187</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>704.3079091975965</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>502.1534879887895</v>
       </c>
       <c r="U3" t="n">
-        <v>876.4074424435694</v>
+        <v>273.9303948628134</v>
       </c>
       <c r="V3" t="n">
-        <v>641.2553342118267</v>
+        <v>273.9303948628134</v>
       </c>
       <c r="W3" t="n">
-        <v>387.0179774836251</v>
+        <v>26.89733187176046</v>
       </c>
       <c r="X3" t="n">
-        <v>179.1664772780923</v>
+        <v>26.89733187176046</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.09252109618843</v>
+        <v>26.89733187176046</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>191.7165880308942</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.959449965771</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="C5" t="n">
-        <v>797.9969330253591</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D5" t="n">
-        <v>439.7312344186087</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>787.0670914110444</v>
       </c>
       <c r="W5" t="n">
-        <v>2317.164380266784</v>
+        <v>787.0670914110444</v>
       </c>
       <c r="X5" t="n">
-        <v>1943.698622005704</v>
+        <v>787.0670914110444</v>
       </c>
       <c r="Y5" t="n">
-        <v>1553.559290029893</v>
+        <v>521.1660470154213</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>475.7657853559551</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>475.7657853559551</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>326.8313756947039</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>275.9536685529086</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>536.5632821650588</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>798.730779078466</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>643.9811223760232</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>643.9811223760232</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1208.982837814967</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="C8" t="n">
-        <v>1208.982837814967</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="D8" t="n">
-        <v>850.7171392082162</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="E8" t="n">
-        <v>464.928886609972</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T8" t="n">
-        <v>2652.879978753853</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U8" t="n">
-        <v>2652.879978753853</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V8" t="n">
-        <v>2321.817091410283</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.048436140168</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.582677879088</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="Y8" t="n">
-        <v>1595.582677879088</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>343.0801083504305</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>658.9885207281711</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>1012.929264049119</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>1012.929264049119</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1012.929264049119</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>758.6919073209172</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>550.8404071153843</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>343.0801083504305</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5121,22 +5123,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5154,13 +5156,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C13" t="n">
-        <v>559.1928012785273</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D13" t="n">
-        <v>517.0200655508537</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="E13" t="n">
-        <v>517.0200655508537</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508537</v>
+        <v>326.5545485026372</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>326.5545485026372</v>
       </c>
       <c r="H13" t="n">
         <v>190.2718927217162</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1644.355031464126</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>1286.089332857375</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>1286.089332857375</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5312,16 +5314,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5348,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5379,7 +5381,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073963</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785532</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5531,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5591,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5598,10 +5600,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5698,25 +5700,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>684.3735766921516</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V19" t="n">
-        <v>684.3735766921516</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W19" t="n">
-        <v>684.3735766921516</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X19" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2310.5492509541</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="C20" t="n">
-        <v>1941.586734013689</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D20" t="n">
-        <v>1583.321035406938</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E20" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F20" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733123</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961344</v>
@@ -5826,13 +5828,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
         <v>670.8219208598711</v>
@@ -5874,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2032.520634775576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>2321.694245121008</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>2032.520634775576</v>
+        <v>458.7441094385871</v>
       </c>
       <c r="V22" t="n">
-        <v>2032.520634775576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W22" t="n">
-        <v>2032.520634775576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X22" t="n">
-        <v>2032.520634775576</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y22" t="n">
-        <v>2032.520634775576</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.94416071721</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776798</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D23" t="n">
-        <v>819.7159451700475</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E23" t="n">
-        <v>433.9276925718032</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
@@ -6029,10 +6031,10 @@
         <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6063,46 +6065,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>368.8844281164661</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L24" t="n">
-        <v>773.500346212138</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M24" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2259.585262415446</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C25" t="n">
-        <v>2259.585262415446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D25" t="n">
-        <v>2259.585262415446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E25" t="n">
-        <v>2111.672168833053</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2549.002432452407</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U25" t="n">
-        <v>2549.002432452407</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="V25" t="n">
-        <v>2549.002432452407</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="W25" t="n">
-        <v>2259.585262415446</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X25" t="n">
-        <v>2259.585262415446</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y25" t="n">
-        <v>2259.585262415446</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>808.0839286340174</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C26" t="n">
-        <v>439.1214116936057</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D26" t="n">
-        <v>439.1214116936057</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E26" t="n">
-        <v>439.1214116936057</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F26" t="n">
-        <v>439.1214116936057</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>1584.823100673951</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1194.683768698139</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.942782082032</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="C28" t="n">
-        <v>222.942782082032</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="D28" t="n">
-        <v>222.942782082032</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="E28" t="n">
-        <v>222.942782082032</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="F28" t="n">
-        <v>222.942782082032</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.4911682165098</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.4911682165098</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6406,28 +6408,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>632.5807978102891</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>632.5807978102891</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>632.5807978102891</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>632.5807978102891</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>632.5807978102891</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>632.5807978102891</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>404.5912469122717</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y28" t="n">
-        <v>404.5912469122717</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1577.945354755379</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>821.0484290197726</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082163</v>
+        <v>462.7827304130221</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>76.99447781477784</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>76.99447781477784</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>76.99447781477784</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>76.99447781477784</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018223</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X29" t="n">
-        <v>2354.684526795312</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y29" t="n">
-        <v>1964.5451948195</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="30">
@@ -6549,16 +6551,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>2407.731920981262</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>2179.742370083245</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>882.8926947117852</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8926947117852</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
         <v>471.9067899221776</v>
@@ -6701,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6725,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2330.329327562361</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V32" t="n">
-        <v>1999.266440218791</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W32" t="n">
-        <v>1646.497784948677</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X32" t="n">
-        <v>1273.032026687597</v>
+        <v>1199.13500546934</v>
       </c>
       <c r="Y32" t="n">
-        <v>882.8926947117852</v>
+        <v>1199.13500546934</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6789,37 +6791,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6883,16 +6885,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>2539.444886308983</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.136698977585</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W34" t="n">
         <v>2022.963088632153</v>
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1970.914677487028</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="C35" t="n">
-        <v>1601.952160546617</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D35" t="n">
-        <v>1243.686461939866</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E35" t="n">
-        <v>857.8982093416219</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F35" t="n">
-        <v>446.9123045520143</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2686.759039623028</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2686.759039623028</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2468.124372595091</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2214.362587233182</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1883.299699889611</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748108</v>
+        <v>1530.531044619497</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487028</v>
+        <v>1157.065286358418</v>
       </c>
       <c r="Y35" t="n">
-        <v>1970.914677487028</v>
+        <v>766.9259543826058</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064344</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C37" t="n">
-        <v>559.1928012785276</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D37" t="n">
-        <v>559.1928012785276</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="E37" t="n">
-        <v>411.2797076961344</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2797076961344</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="G37" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7138,7 +7140,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1721.819089287443</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C38" t="n">
-        <v>1721.819089287443</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D38" t="n">
-        <v>1363.553390680693</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E38" t="n">
-        <v>1363.553390680693</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7190,10 +7192,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
@@ -7202,22 +7204,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V38" t="n">
-        <v>1916.245359491378</v>
+        <v>2361.662430107517</v>
       </c>
       <c r="W38" t="n">
-        <v>1916.245359491378</v>
+        <v>2361.662430107517</v>
       </c>
       <c r="X38" t="n">
-        <v>1916.245359491378</v>
+        <v>2361.662430107517</v>
       </c>
       <c r="Y38" t="n">
-        <v>1916.245359491378</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="39">
@@ -7248,40 +7250,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2170.876182214546</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C40" t="n">
-        <v>2170.876182214546</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="D40" t="n">
-        <v>2170.876182214546</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>365.927467442204</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>219.0375199442937</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>219.0375199442937</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>2482.860667836385</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T40" t="n">
-        <v>2255.552480504987</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U40" t="n">
-        <v>2255.552480504987</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V40" t="n">
-        <v>2170.876182214546</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W40" t="n">
-        <v>2170.876182214546</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X40" t="n">
-        <v>2170.876182214546</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y40" t="n">
-        <v>2170.876182214546</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="41">
@@ -7415,37 +7417,37 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
         <v>2697.149091018222</v>
@@ -7470,16 +7472,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7488,22 +7490,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
         <v>2525.076107152626</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>536.6170209242687</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T43" t="n">
-        <v>536.6170209242687</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U43" t="n">
-        <v>536.6170209242687</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V43" t="n">
-        <v>281.9325327183818</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755378</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>2092.477155601806</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1702.337823625994</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>670.6724489759715</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>418.2905476243737</v>
+        <v>322.5427836983918</v>
       </c>
       <c r="N3" t="n">
-        <v>280.6130126714537</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>387.1589768055868</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429919</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>399.6030297167408</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>394.5837460350002</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>380.8710565096183</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9015,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10197,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.1619485273195</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>8.095732519776732</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>123.0371674495544</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>104.6782363562706</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611361</v>
+        <v>125.1683683173266</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="3">
@@ -22629,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>140.1860754145984</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.17947915721956</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22714,22 +22716,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>138.2176803404121</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>125.5212316362309</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>150.8702581588524</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>102.0308578193407</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846802</v>
       </c>
       <c r="W5" t="n">
-        <v>27.53450764830086</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>122.9959047043867</v>
       </c>
     </row>
     <row r="6">
@@ -22863,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22875,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>52.57082506805918</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22945,28 +22947,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>63.45830508392203</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>327.0823566196187</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>172.6218992159323</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>109.0812781194719</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23185,25 +23187,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595015</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>206.6395349742973</v>
       </c>
       <c r="G11" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>106.8644646478155</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.25105961868337</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23473,7 +23475,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>76.68941724508403</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,16 +23554,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23653,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>106.8644646478151</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23735,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23783,16 +23785,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>135.32631382902</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,25 +23940,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>168.8276855108789</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>226.9689958712387</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>12.42908554841739</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24127,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>157.7848504166386</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,19 +24174,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>19.59084822180887</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24215,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>30.69118209778708</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -24269,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>57.59905862404051</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24409,22 +24411,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>156.5407064594118</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24449,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45752444628613</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24500,10 +24502,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>40.37291726015435</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -24646,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>52.07248744797398</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -24698,7 +24700,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>129.110335210392</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24841,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>86.05160619575661</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>45.19995918853699</v>
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.37316471551401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>158.9993246194565</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>43.80866606469613</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25123,19 +25125,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>56.0183762878722</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>24.74454051646165</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>44.19225169356879</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>149.882913464709</v>
+        <v>65.52911452950164</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>190.2518341615854</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>224.5145795523196</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>127.6929178914434</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853699</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>168.3081080162918</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25807,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>22.54869530067481</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>89.56002855569136</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>259.5852974815709</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26044,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>89.78322210199968</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>460672.766074693</v>
+        <v>435032.507042336</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>751796.7860409702</v>
+        <v>450684.3915209944</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>751796.7860409702</v>
+        <v>460672.766074693</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751796.7860409699</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="15">
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>150588.1755146547</v>
+      </c>
+      <c r="C2" t="n">
+        <v>156006.135526498</v>
+      </c>
+      <c r="D2" t="n">
         <v>159463.6497950859</v>
       </c>
-      <c r="C2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="D2" t="n">
-        <v>260237.3490141816</v>
-      </c>
       <c r="E2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="F2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="G2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141819</v>
       </c>
       <c r="H2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="I2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="K2" t="n">
         <v>260237.3490141816</v>
@@ -26344,13 +26346,13 @@
         <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141816</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147456</v>
+        <v>23645.34018189539</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214111</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>394217.2929137605</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>63988.37154589874</v>
       </c>
       <c r="K3" t="n">
-        <v>102466.1171957467</v>
+        <v>4807.454491750106</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.538594581485</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99215.77767884452</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>182.2467736288814</v>
+      </c>
+      <c r="C4" t="n">
+        <v>196.6176664714449</v>
+      </c>
+      <c r="D4" t="n">
         <v>206.5374179011836</v>
-      </c>
-      <c r="C4" t="n">
-        <v>513.1084990597035</v>
-      </c>
-      <c r="D4" t="n">
-        <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26433,7 +26435,7 @@
         <v>513.1084990597036</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597036</v>
@@ -26442,13 +26444,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>48577.10433863014</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50134.40740683336</v>
+      </c>
+      <c r="D5" t="n">
         <v>51181.37951678014</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26482,16 +26484,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
@@ -26500,16 +26502,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18217.60858640843</v>
+        <v>16330.04580118661</v>
       </c>
       <c r="C6" t="n">
-        <v>-263842.9210630332</v>
+        <v>82029.77027129776</v>
       </c>
       <c r="D6" t="n">
-        <v>176865.1624517124</v>
+        <v>93780.39315826341</v>
       </c>
       <c r="E6" t="n">
+        <v>-183724.530462048</v>
+      </c>
+      <c r="F6" t="n">
+        <v>210492.7624517125</v>
+      </c>
+      <c r="G6" t="n">
+        <v>210492.7624517127</v>
+      </c>
+      <c r="H6" t="n">
+        <v>210492.7624517125</v>
+      </c>
+      <c r="I6" t="n">
         <v>210492.7624517124</v>
       </c>
-      <c r="F6" t="n">
-        <v>210492.7624517124</v>
-      </c>
-      <c r="G6" t="n">
-        <v>210492.7624517126</v>
-      </c>
-      <c r="H6" t="n">
-        <v>210492.7624517126</v>
-      </c>
-      <c r="I6" t="n">
-        <v>210492.7624517126</v>
-      </c>
       <c r="J6" t="n">
-        <v>138238.0675805735</v>
+        <v>146504.3909058138</v>
       </c>
       <c r="K6" t="n">
-        <v>108026.6452559658</v>
+        <v>205685.3079599623</v>
       </c>
       <c r="L6" t="n">
-        <v>210492.7624517125</v>
+        <v>207224.223857131</v>
       </c>
       <c r="M6" t="n">
-        <v>210492.7624517127</v>
+        <v>111276.984772868</v>
       </c>
       <c r="N6" t="n">
         <v>210492.7624517125</v>
       </c>
       <c r="O6" t="n">
-        <v>210492.7624517127</v>
+        <v>210492.7624517125</v>
       </c>
       <c r="P6" t="n">
-        <v>210492.7624517125</v>
+        <v>210492.7624517124</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>3.673862893242319</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.01338268678962</v>
+      </c>
+      <c r="D3" t="n">
         <v>35.02126071912529</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26774,10 +26776,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>244.5627323611424</v>
+      </c>
+      <c r="C4" t="n">
+        <v>263.2420339516669</v>
+      </c>
+      <c r="D4" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26802,16 +26804,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
@@ -26820,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>342.7224034979613</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233568</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,17 +27011,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
+        <v>18.67930159052449</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.91447975068854</v>
+      </c>
+      <c r="E4" t="n">
         <v>398.1307590522002</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
+        <v>18.67930159052449</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.91447975068843</v>
+      </c>
+      <c r="M4" t="n">
         <v>398.1307590522003</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
+        <v>18.67930159052449</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.91447975068854</v>
+      </c>
+      <c r="M4" t="n">
         <v>398.1307590522002</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -31148,19 +31150,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32087,28 +32089,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32318,13 +32320,13 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M18" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923047</v>
@@ -32470,7 +32472,7 @@
         <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727431</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
         <v>193.1674799081578</v>
@@ -32552,10 +32554,10 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>11.76595806653282</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071302</v>
       </c>
       <c r="M21" t="n">
         <v>205.8702969983122</v>
@@ -32789,7 +32791,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
-        <v>115.4815392304388</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32807,7 +32809,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034983</v>
@@ -33023,7 +33025,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33044,7 +33046,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034983</v>
@@ -33281,7 +33283,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034983</v>
@@ -33518,7 +33520,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034983</v>
@@ -33752,7 +33754,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
@@ -33971,7 +33973,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34223,25 +34225,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>73.87984549392672</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>180.4087497763734</v>
       </c>
       <c r="N3" t="n">
-        <v>149.2713005881204</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>251.2660748322851</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>257.4689957947224</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>249.529344426285</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35741,7 +35743,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35966,13 +35968,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
         <v>297.223041434342</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36437,7 +36439,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>242.1053372686584</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338903</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37400,10 +37402,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>974391.6413701128</v>
+        <v>1026554.376270009</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24050.72517485294</v>
+        <v>190309.4985406122</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>10850698.87543052</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8693118.6549608</v>
+        <v>7817662.70596674</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>237.933284306384</v>
+        <v>215.4108546636941</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825082</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229251</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>60.28005125577188</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.4314178382491</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>99.19399436530227</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>231.8635835046283</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325221</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>125.6384340685031</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.19029374363583</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>82.68702246598912</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>77.14804664098638</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>24.59170878023792</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>38.41246064089442</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250752</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>67.24036028042086</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>61.40402402712815</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>4.115135412620243</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>65.0588499087777</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>253.9817996904791</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>181.7508773607583</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>85.87170836083652</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>105.6887166049448</v>
+        <v>366.6556628138752</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1973,7 +1973,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>10.46499054460254</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>85.42957511242953</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>253.5111876485553</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>41.751008370397</v>
       </c>
       <c r="F22" t="n">
-        <v>83.20847710134866</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>211.0320670316971</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>238.8517495102342</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>81.25819606329408</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>294.7503144340305</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>211.0320670316975</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>92.00803688215807</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>262.9810209066304</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>9.818240049457312</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>90.04875807993751</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>30.28266751616599</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>334.5817096732204</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>92.50163788107093</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>134.9474759313285</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>204.7865225372084</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5498821066794</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>81.25819606329414</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>163.9417172296736</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>298.1703050854968</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>162.1994487854631</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>90.04875807993751</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>356.954888184578</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>72.497054795987</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>64.4645282273834</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>296.7650756691945</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>100.5088970641055</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>216.6993815150879</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.483574129469</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.14692331494</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>513.6311445709973</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615927</v>
+        <v>20.23786849471571</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572644</v>
+        <v>251.8996143319767</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315295</v>
+        <v>494.0167193695077</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414846</v>
+        <v>736.1338244070387</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.07275543519</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.317569050019</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>917.3619887821737</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>682.2098805504311</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>435.1768175593782</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>227.3253173538453</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799423</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799423</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799423</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799423</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064341</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064341</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064341</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064341</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U4" t="n">
-        <v>438.955373861002</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V4" t="n">
-        <v>438.955373861002</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W4" t="n">
-        <v>438.955373861002</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>438.955373861002</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.955373861002</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1004.183115213127</v>
+        <v>286.9604071117568</v>
       </c>
       <c r="C5" t="n">
-        <v>1004.183115213127</v>
+        <v>286.9604071117568</v>
       </c>
       <c r="D5" t="n">
-        <v>1004.183115213127</v>
+        <v>286.9604071117568</v>
       </c>
       <c r="E5" t="n">
-        <v>618.3948626148824</v>
+        <v>286.9604071117568</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>286.9604071117568</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>330.2546714142367</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098032</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>785.5101925369341</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885156</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="W5" t="n">
-        <v>1780.92228725306</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="X5" t="n">
-        <v>1780.92228725306</v>
+        <v>787.0670914110452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1390.782955277248</v>
+        <v>552.8614515073803</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>261.6628906109961</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>522.2725042231466</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>782.8821178352971</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>1043.295181927789</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>926.0606266465645</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>690.9085184148217</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>436.6711616866201</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8327295799423</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799423</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799423</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>54.48163939360313</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>100.1098670955242</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>150.0877739486502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>180.2341645716489</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>98.98668255551357</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064341</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064341</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694735</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694735</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694735</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.483574129469</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="C8" t="n">
-        <v>1293.521057189058</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.680947310029</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.483574129469</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.483574129469</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.483574129469</v>
+        <v>825.6800813726991</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>60.89298639002118</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>60.89298639002118</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747043</v>
+        <v>60.89298639002118</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692488</v>
+        <v>60.89298639002118</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>60.89298639002118</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>60.89298639002118</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673417</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>673.2291631121086</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>921.9825771960709</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>730.7421420887096</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>476.5047853605079</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>268.6532851549751</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>60.89298639002118</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027575</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V10" t="n">
-        <v>660.2094283676252</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W10" t="n">
-        <v>370.7922583306645</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X10" t="n">
-        <v>370.7922583306645</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1313.879478346266</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C11" t="n">
-        <v>944.916961405854</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117851</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
@@ -5047,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5068,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U11" t="n">
-        <v>2443.387305656313</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.387305656313</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W11" t="n">
-        <v>2090.618650386199</v>
+        <v>2185.752013551832</v>
       </c>
       <c r="X11" t="n">
-        <v>2090.618650386199</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y11" t="n">
-        <v>1700.479318410387</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="12">
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.7118141694735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>269.7756312415665</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>119.6589918292308</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064341</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064341</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>438.7118141694735</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.7118141694735</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>995.9506728057374</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C14" t="n">
-        <v>995.9506728057374</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D14" t="n">
-        <v>637.684974198987</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>637.684974198987</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>637.684974198987</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V14" t="n">
-        <v>2112.324418312743</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.555763042629</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X14" t="n">
-        <v>1386.090004781549</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y14" t="n">
-        <v>995.9506728057374</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5360,10 +5360,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
         <v>1194.968834417902</v>
@@ -5378,22 +5378,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C16" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D16" t="n">
-        <v>200.8329293182748</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E16" t="n">
-        <v>200.8329293182748</v>
+        <v>140.6820811747448</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036445</v>
@@ -5478,10 +5478,10 @@
         <v>438.7118141694736</v>
       </c>
       <c r="X16" t="n">
-        <v>210.7222632714563</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.8329293182748</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1675.109392681467</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C17" t="n">
-        <v>1675.109392681467</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="D17" t="n">
-        <v>1316.843694074716</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W17" t="n">
-        <v>2048.575150942547</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X17" t="n">
-        <v>1675.109392681467</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y17" t="n">
-        <v>1675.109392681467</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5606,31 +5606,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
         <v>53.94298182036445</v>
@@ -5703,22 +5703,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>500.820796875036</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1253.251950079336</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C20" t="n">
-        <v>884.2894331389243</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D20" t="n">
-        <v>526.0237345321739</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>140.2354819339296</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>140.2354819339296</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>140.2354819339296</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>1639.851790143458</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="Y20" t="n">
-        <v>1639.851790143458</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5834,46 +5834,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C22" t="n">
-        <v>579.9823256406182</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D22" t="n">
-        <v>579.9823256406182</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E22" t="n">
-        <v>432.0692320582251</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F22" t="n">
-        <v>348.0202652891861</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G22" t="n">
         <v>348.0202652891861</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1595.875667274027</v>
+        <v>1481.844651382451</v>
       </c>
       <c r="C23" t="n">
-        <v>1595.875667274027</v>
+        <v>1481.844651382451</v>
       </c>
       <c r="D23" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2279.707209887712</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>1948.644322544141</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W23" t="n">
-        <v>1595.875667274027</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X23" t="n">
-        <v>1595.875667274027</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y23" t="n">
-        <v>1595.875667274027</v>
+        <v>1481.844651382451</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6089,22 +6089,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1166.959449965771</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C26" t="n">
-        <v>797.9969330253592</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036446</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036446</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6262,16 +6262,16 @@
         <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>1927.025048290973</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W26" t="n">
-        <v>1927.025048290973</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X26" t="n">
-        <v>1553.559290029893</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y26" t="n">
-        <v>1553.559290029893</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>578.0123447940986</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>430.0992512117055</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>283.2093037137951</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>283.2093037137951</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036446</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1176.876864157142</v>
+        <v>1534.318342165212</v>
       </c>
       <c r="C29" t="n">
-        <v>807.9143472167302</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>449.6486486099797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>63.86039601173547</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>1916.245359491378</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W29" t="n">
-        <v>1563.476704221264</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X29" t="n">
-        <v>1563.476704221264</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y29" t="n">
-        <v>1563.476704221264</v>
+        <v>1920.918182229334</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>144.9013233152508</v>
       </c>
       <c r="C31" t="n">
-        <v>559.1928012785273</v>
+        <v>144.9013233152508</v>
       </c>
       <c r="D31" t="n">
-        <v>559.1928012785273</v>
+        <v>144.9013233152508</v>
       </c>
       <c r="E31" t="n">
-        <v>411.2797076961342</v>
+        <v>144.9013233152508</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2797076961342</v>
+        <v>144.9013233152508</v>
       </c>
       <c r="G31" t="n">
-        <v>242.2799074344666</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>84.53153486699676</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>144.9013233152508</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>983.6384645338385</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C32" t="n">
-        <v>983.6384645338385</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="D32" t="n">
-        <v>625.3727659270879</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E32" t="n">
-        <v>625.3727659270879</v>
+        <v>802.8902095122148</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>391.9043047226073</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2189.908715988822</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>1837.140060718708</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X32" t="n">
-        <v>1463.674302457628</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1370.23830459796</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6776,10 +6776,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
         <v>266.2060027641994</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>184.0273259635867</v>
+        <v>359.1897464970881</v>
       </c>
       <c r="C34" t="n">
-        <v>184.0273259635867</v>
+        <v>190.2535635691812</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2535635691812</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2535635691812</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2535635691812</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6867,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V34" t="n">
-        <v>473.4444960005474</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W34" t="n">
-        <v>184.0273259635867</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X34" t="n">
-        <v>184.0273259635867</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y34" t="n">
-        <v>184.0273259635867</v>
+        <v>359.1897464970881</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1310.651480925462</v>
+        <v>1448.013466588443</v>
       </c>
       <c r="C35" t="n">
-        <v>1310.651480925462</v>
+        <v>1448.013466588443</v>
       </c>
       <c r="D35" t="n">
-        <v>1310.651480925462</v>
+        <v>1089.747767981693</v>
       </c>
       <c r="E35" t="n">
-        <v>1310.651480925462</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>899.665576135855</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>481.7017680340418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6940,16 +6940,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2423.485734520778</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W35" t="n">
-        <v>2070.717079250664</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X35" t="n">
-        <v>1697.251320989584</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y35" t="n">
-        <v>1697.251320989584</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>495.9333588715792</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>343.360151857325</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>646.0499982839149</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>646.0499982839149</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1701.775251950351</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C38" t="n">
-        <v>1701.775251950351</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D38" t="n">
-        <v>1343.509553343601</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E38" t="n">
-        <v>957.7213007453565</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>546.735395955749</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
@@ -7201,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V38" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W38" t="n">
-        <v>2478.514423990285</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X38" t="n">
-        <v>2478.514423990285</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y38" t="n">
-        <v>2088.375092014473</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036444</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>217.7808088763878</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7368,16 +7368,16 @@
         <v>365.6939024587809</v>
       </c>
       <c r="V40" t="n">
-        <v>274.7355609638946</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W40" t="n">
-        <v>274.7355609638946</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X40" t="n">
-        <v>274.7355609638946</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1241.158393318536</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C41" t="n">
-        <v>1241.158393318536</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117852</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>978.9553557306176</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>567.9694509410101</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,10 +7414,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843236</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.527073573122</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X41" t="n">
-        <v>1631.297725294347</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y41" t="n">
-        <v>1241.158393318536</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>863.1126181035243</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C44" t="n">
-        <v>863.1126181035243</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D44" t="n">
-        <v>504.8469194967738</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E44" t="n">
-        <v>119.0586668985295</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>119.0586668985295</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>119.0586668985295</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7678,22 +7678,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W44" t="n">
-        <v>2013.317548404538</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X44" t="n">
-        <v>1639.851790143458</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="Y44" t="n">
-        <v>1249.712458167646</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="45">
@@ -7730,10 +7730,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417902</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>626.6048457578428</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>626.6048457578428</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U46" t="n">
-        <v>626.6048457578428</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V46" t="n">
-        <v>371.9203575519559</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W46" t="n">
-        <v>371.9203575519559</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X46" t="n">
-        <v>371.9203575519559</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y46" t="n">
-        <v>371.9203575519559</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>138.5210853438785</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>386.6967662831607</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>375.9044444444757</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>387.1589768055868</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747125</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236086</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>405.3760678736855</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>394.5837460350004</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>134.2926466205235</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868108</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>418.2905476243737</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>257.8867691953438</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.3570488013782</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>137.3676377111194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>131.797816372085</v>
+        <v>154.3202460147749</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>165.6608109389445</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.4005623436882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22716,22 +22716,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>149.4414326714929</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>119.4918077118134</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>151.9681874521642</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>250.0469743521107</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268019</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>154.3743551514253</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.6923398882896</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.0844620270375</v>
       </c>
       <c r="S6" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>100.2996914017141</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.6416864383015</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22953,22 +22953,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>98.27937439570995</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908972</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>330.091332840445</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>94.79428962526615</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>73.09546646255004</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23156,10 +23156,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23181,31 +23181,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
-        <v>184.8972830434071</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>293.2790175935548</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>345.1258333047928</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>81.37511273779147</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491433</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23469,16 +23469,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168093</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>159.8023703303159</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>187.9802233177107</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.54933966209472</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7942127384452</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>276.241653467317</v>
+        <v>15.27470725838657</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23782,19 +23782,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>135.9689721019666</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23943,13 +23943,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>238.4931976519276</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24028,16 +24028,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>116.2199130299138</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>104.6829542761722</v>
       </c>
       <c r="F22" t="n">
-        <v>62.21257092158258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>143.6509745889859</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24256,16 +24256,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>12.37241799805514</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>64.16285195963717</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24414,19 +24414,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>33.00194403610442</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>158.6990336467715</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>64.16285195963708</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>102.2918708643771</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>397.0578056922541</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>77.2610441791134</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>104.6829542761722</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24885,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>79.20246034757463</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24976,16 +24976,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>293.7363007749826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>19.83197231642228</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>32.36232632772237</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25134,16 +25134,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>177.1438475350534</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>52.37289065767777</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25362,19 +25362,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>117.5062691663786</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>205.0236781786836</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>249.8424527911214</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>71.56079559297223</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25557,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>5.110353473587793</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>162.0888852438905</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>56.82928183621704</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>297.2340458824821</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>21.87414536972213</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>259.4582445369738</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>72.96602500927452</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>111.6366418859134</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>1.88527183700694</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>751796.7860409699</v>
+        <v>435032.5070423359</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>751796.7860409699</v>
+        <v>450684.3915209947</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>751796.7860409701</v>
+        <v>460672.7660746929</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751796.7860409699</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751796.7860409704</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751796.7860409699</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>260237.3490141815</v>
+        <v>150588.1755146547</v>
       </c>
       <c r="C2" t="n">
-        <v>260237.3490141815</v>
+        <v>156006.1355264979</v>
       </c>
       <c r="D2" t="n">
+        <v>159463.6497950858</v>
+      </c>
+      <c r="E2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="E2" t="n">
-        <v>260237.3490141815</v>
-      </c>
       <c r="F2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="G2" t="n">
         <v>260237.3490141817</v>
       </c>
-      <c r="G2" t="n">
-        <v>260237.3490141816</v>
-      </c>
       <c r="H2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
@@ -26340,7 +26340,7 @@
         <v>260237.3490141817</v>
       </c>
       <c r="K2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="L2" t="n">
         <v>260237.3490141817</v>
@@ -26352,10 +26352,10 @@
         <v>260237.3490141817</v>
       </c>
       <c r="O2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="P2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="P2" t="n">
-        <v>260237.3490141818</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23645.3401818957</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214081</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>394217.2929137604</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>63988.37154589876</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4807.45449175018</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.538594581442</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99215.77767884446</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597034</v>
+        <v>182.2467736288815</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597034</v>
+        <v>196.6176664714451</v>
       </c>
       <c r="D4" t="n">
-        <v>513.1084990597035</v>
+        <v>206.5374179011836</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>50134.40740683338</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26496,10 +26496,10 @@
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419171.1305086511</v>
+        <v>15114.04235160734</v>
       </c>
       <c r="C6" t="n">
-        <v>170796.7487058931</v>
+        <v>80843.86659956165</v>
       </c>
       <c r="D6" t="n">
-        <v>170796.7487058932</v>
+        <v>92613.69789913125</v>
       </c>
       <c r="E6" t="n">
-        <v>204424.3487058931</v>
+        <v>-184331.3718366299</v>
       </c>
       <c r="F6" t="n">
-        <v>204424.3487058933</v>
+        <v>209885.9210771305</v>
       </c>
       <c r="G6" t="n">
-        <v>204424.3487058932</v>
+        <v>209885.9210771306</v>
       </c>
       <c r="H6" t="n">
-        <v>204424.3487058932</v>
+        <v>209885.9210771306</v>
       </c>
       <c r="I6" t="n">
-        <v>204424.3487058932</v>
+        <v>209885.9210771305</v>
       </c>
       <c r="J6" t="n">
-        <v>28001.12951330037</v>
+        <v>145897.5495312318</v>
       </c>
       <c r="K6" t="n">
-        <v>204424.3487058931</v>
+        <v>205078.4665853805</v>
       </c>
       <c r="L6" t="n">
-        <v>204424.3487058933</v>
+        <v>206617.3824825491</v>
       </c>
       <c r="M6" t="n">
-        <v>204424.3487058933</v>
+        <v>110670.1433982861</v>
       </c>
       <c r="N6" t="n">
-        <v>204424.3487058933</v>
+        <v>209885.9210771306</v>
       </c>
       <c r="O6" t="n">
-        <v>204424.3487058933</v>
+        <v>209885.9210771305</v>
       </c>
       <c r="P6" t="n">
-        <v>204424.3487058934</v>
+        <v>209885.9210771306</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>23.01338268678986</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26816,16 +26816,16 @@
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.33951979354754</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233544</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.91447975068826</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.91447975068826</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.91447975068826</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>0.09251611130367775</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>0.9474806248887899</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>3.56672738103504</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>7.852189301760526</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>11.76839629324521</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>14.59973623455514</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>16.24501962895192</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>16.50788103019349</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>15.58792394841755</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>13.303932450608</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214545037</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>5.811515176679652</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>2.108210886332559</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>0.4049892772318495</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.007401288904294218</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.04950048351498196</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>0.4780704592104837</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>1.704292963125476</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>7.993242550750399</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688238</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>11.77742425104047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>9.452421277523179</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>6.31869329921068</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>3.073372125605635</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>0.9194497705524055</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>0.1995216857467912</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.003256610757564604</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.04149954254994892</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>0.3689686601259097</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>1.248004425047555</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>2.934017658281388</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>4.821492307166792</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471498</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>6.50524192898881</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815848097</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>5.865771705150964</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>5.019181037132002</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>3.475020785705268</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>1.865970340473157</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>0.7232238460750187</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>0.1773162272588726</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.002263611411815398</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576413</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,7 +31761,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
         <v>193.1674799081577</v>
@@ -31773,7 +31773,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
         <v>255.8615389119865</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>87.78329382423996</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32326,7 +32326,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
         <v>193.3156655923047</v>
@@ -32335,7 +32335,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -32554,7 +32554,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32569,10 +32569,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -33025,7 +33025,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33046,7 +33046,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33262,7 +33262,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33283,7 +33283,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034982</v>
@@ -33736,7 +33736,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33757,7 +33757,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33994,19 +33994,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>87.78329382423996</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L45" t="n">
         <v>176.4169820478007</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031297</v>
+        <v>0.6796463695195167</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>196.4945358150183</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>235.4123198945117</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>224.4417418455867</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>166.2898937894762</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604674</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>263.0434990833256</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>9.770660483716462</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178763</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>46.0891188908294</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507669</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919064</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>2.29774030202549</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.370323552522125</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>126.5450571120105</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
         <v>148.370846145888</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36217,10 +36217,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,13 +37557,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37873,7 +37873,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,13 +38107,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
